--- a/Excel/镇魂街/guide.xlsx
+++ b/Excel/镇魂街/guide.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1"/>
@@ -10,12 +10,12 @@
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="属性" sheetId="26" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="284">
   <si>
     <t>sheet名</t>
   </si>
@@ -396,10 +396,6 @@
   </si>
   <si>
     <t>UICardHell</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵达到一定等级才可解锁技能装备位，所以先让我们吧守护灵的等级提升到15级吧</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1086,10 +1082,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>UIGuideNeedEvent</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>MidEventType</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1150,55 +1142,275 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>UIRoot/NormalLayer/UICardSkill/SkillPanel/Scroll View Skill/skillGrid_UIWrapGroup3D/1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NormalLayer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NormalLayer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIRoot/NormalLayer/UILearnSkill/panel/skillEffectGroup/resource_UIButton</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui_t_Guide_003</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui_t_Guide_003</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击资源</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择技能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIDrawCardResult</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeedUI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HandleType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>UIGuideNeedEvent</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>点击选择第2个行动技能</t>
+  </si>
+  <si>
+    <t>点击选择第3个行动技能</t>
+  </si>
+  <si>
+    <t>点击选择第4个行动技能</t>
+  </si>
+  <si>
+    <t>点击开战，进行战斗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击选择第1个行动技能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合角色可任意行动，所有角色最多行动4次</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击开战，对敌人执行攻击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合开始时，会随机获得不同颜色的水晶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行任意次数的行动后，都可开战</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接下来用左侧的守护灵对敌方对面的敌人进行打击，降低对方的生命</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>本回合的技能策略已经安排好了，那么让我们执行这次的安排吧</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击屏幕任意位置返回</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>再召唤一次&lt;color=#ec6b60&gt;&lt;size=48&gt;强大&lt;/size&gt;&lt;/color&gt;的守护灵参战吧</t>
+  </si>
+  <si>
+    <t>水晶数量达到要求，可召唤&lt;color=#ec6b60&gt;&lt;size=48&gt;强大&lt;/size&gt;&lt;/color&gt;的守护灵参战</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合理的安排&lt;color=#ec6b60&gt;&lt;size=48&gt;技能释放顺序&lt;/size&gt;&lt;/color&gt;，可以更快速的获得战斗的胜利，让我们先对右方的敌人进行一次攻击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过两次打击，对面左右两侧的敌人生命剩余的不多了，让我们用一个&lt;color=#ec6b60&gt;&lt;size=48&gt;群攻技能&lt;/size&gt;&lt;/color&gt;进行收割吧</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们已选的行动，对中间的敌人并没有进行多少打击，那么让我们选择一个&lt;color=#ec6b60&gt;&lt;size=48&gt;连击技能&lt;/size&gt;&lt;/color&gt;了结了他吧</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIRoot/NormalLayer/UILevelDetail/btngroup/begintbtn_UIButton</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map_zhucheng_001_Root(Clone)/Environment/zhucheng_buildings/Misc_ZCmaoxian_001_cc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIHangupLevel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UITestMain</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIRoot/BackgroudLayer/UITestMain/ResourceBarParent/CommonBtnGroup(Clone)/BottomBtnGroup/CardBtn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIRoot/BackgroudLayer/UITestMain/ResourceBarParent/CommonBtnGroup(Clone)/RightBtnGroup/Paiqian</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui_t_Guide_003</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui_t_Guide_002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>派遣巡逻只要选择空闲的卡牌在指定地点进行挂机，即可获取大量卡牌突破材料和升级经验</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui_t_Guide_003</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIRoot/BackgroudLayer/UIHangupLevel/UIHangup1(Clone)/1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>随着剧情的推进可以开启更多的巡逻点，现在让我们选择第一个巡逻点进行挂机吧</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NormalLayer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIPatrolDetails</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIRoot/NormalLayer/UIPatrolDetails/CommonRoot/PatrolDetailsWindow/PatrolTeam/TeamMember_Empty/Member_Empty_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击头像区域即可选择卡牌进行挂机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIRoot/NormalLayer/UIPatrolDetails/CommonRoot/PatrolDetailsWindow/AvailableCardList/ScrollView/Content/0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIRoot/NormalLayer/UIPatrolDetails/CommonRoot/PatrolDetailsWindow/AvailableCardList/ScrollView/Content/1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIRoot/NormalLayer/UIPatrolDetails/CommonRoot/PatrolDetailsWindow/AvailableCardList/ScrollView/Content/2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIRoot/NormalLayer/UIPatrolDetails/CommonRoot/PatrolDetailsWindow/AvailableCardList/ScrollView/Content/3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIRoot/NormalLayer/UIPatrolDetails/CommonRoot/PatrolDetailsWindow/AvailableCardList/ScrollView/Content/4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIRoot/NormalLayer/UIPatrolDetails/CommonRoot/PatrolDetailsWindow/AvailableCardList/ScrollView/Content/5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请依次选择卡牌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIRoot/NormalLayer/UIPatrolDetails/CommonRoot/PatrolDetailsWindow/PatrolDuration/StartBtn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择的卡牌战力满足派遣条件 可开始巡逻</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>巡逻后会进入倒计时，在巡逻一段时间后，即可回来领取巡逻奖励</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击关闭界面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击返回主城</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackgroudLayer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的冒险就到这里了 继续你的冒险把</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIRoot/NormalLayer/UIPatrolDetails/CommonRoot/PatrolDetailsWindow/PatrolTeam/RemainingTimeText/frametx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIRoot/NormalLayer/UIPatrolDetails/CommonRoot/PatrolDetailsWindow/PatrolDetailsTitle/exitBtn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIRoot/BackgroudLayer/UIHangupLevel/BattleInfoModule_RT/BackBtn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIGuideNeedEvent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIGuideNeedEvent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIGuideNeedEvent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIGuideNeedEvent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>UIRoot/NormalLayer/UISkillExchange/UIScrollView/ScrollView/Grid/2/bg_UIButton</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>UIRoot/NormalLayer/UICardSkill/SkillPanel/Scroll View Skill/skillGrid_UIWrapGroup3D/1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>NormalLayer</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>NormalLayer</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIRoot/NormalLayer/UILearnSkill/panel/skillEffectGroup/resource_UIButton</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui_t_Guide_003</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui_t_Guide_003</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击资源</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择技能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIDrawCardResult</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>NeedUI</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>HandleType</t>
+    <t>守护灵达到一定等级才可解锁技能装备位，所以先让我们吧守护灵的等级提升到15级吧</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIRoot/NormalLayer/UILearnSkill/panel/right/Scroll View/grid_UIWrapGroup3D/1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1206,218 +1418,18 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>点击选择第2个行动技能</t>
-  </si>
-  <si>
-    <t>点击选择第3个行动技能</t>
-  </si>
-  <si>
-    <t>点击选择第4个行动技能</t>
-  </si>
-  <si>
-    <t>点击开战，进行战斗</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击选择第1个行动技能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每回合角色可任意行动，所有角色最多行动4次</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击开战，对敌人执行攻击</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每回合开始时，会随机获得不同颜色的水晶</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行任意次数的行动后，都可开战</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>接下来用左侧的守护灵对敌方对面的敌人进行打击，降低对方的生命</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>本回合的技能策略已经安排好了，那么让我们执行这次的安排吧</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击屏幕任意位置返回</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>再召唤一次&lt;color=#ec6b60&gt;&lt;size=48&gt;强大&lt;/size&gt;&lt;/color&gt;的守护灵参战吧</t>
-  </si>
-  <si>
-    <t>水晶数量达到要求，可召唤&lt;color=#ec6b60&gt;&lt;size=48&gt;强大&lt;/size&gt;&lt;/color&gt;的守护灵参战</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>合理的安排&lt;color=#ec6b60&gt;&lt;size=48&gt;技能释放顺序&lt;/size&gt;&lt;/color&gt;，可以更快速的获得战斗的胜利，让我们先对右方的敌人进行一次攻击</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>经过两次打击，对面左右两侧的敌人生命剩余的不多了，让我们用一个&lt;color=#ec6b60&gt;&lt;size=48&gt;群攻技能&lt;/size&gt;&lt;/color&gt;进行收割吧</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们已选的行动，对中间的敌人并没有进行多少打击，那么让我们选择一个&lt;color=#ec6b60&gt;&lt;size=48&gt;连击技能&lt;/size&gt;&lt;/color&gt;了结了他吧</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIRoot/NormalLayer/UILevelDetail/btngroup/begintbtn_UIButton</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map_zhucheng_001_Root(Clone)/Environment/zhucheng_buildings/Misc_ZCmaoxian_001_cc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIHangupLevel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UITestMain</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIRoot/BackgroudLayer/UITestMain/ResourceBarParent/CommonBtnGroup(Clone)/BottomBtnGroup/CardBtn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIRoot/BackgroudLayer/UITestMain/ResourceBarParent/CommonBtnGroup(Clone)/RightBtnGroup/Paiqian</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui_t_Guide_003</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui_t_Guide_002</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>派遣巡逻只要选择空闲的卡牌在指定地点进行挂机，即可获取大量卡牌突破材料和升级经验</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui_t_Guide_003</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIRoot/BackgroudLayer/UIHangupLevel/UIHangup1(Clone)/1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>随着剧情的推进可以开启更多的巡逻点，现在让我们选择第一个巡逻点进行挂机吧</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>NormalLayer</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIPatrolDetails</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIRoot/NormalLayer/UIPatrolDetails/CommonRoot/PatrolDetailsWindow/PatrolTeam/TeamMember_Empty/Member_Empty_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击头像区域即可选择卡牌进行挂机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIRoot/NormalLayer/UIPatrolDetails/CommonRoot/PatrolDetailsWindow/AvailableCardList/ScrollView/Content/0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIRoot/NormalLayer/UIPatrolDetails/CommonRoot/PatrolDetailsWindow/AvailableCardList/ScrollView/Content/1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIRoot/NormalLayer/UIPatrolDetails/CommonRoot/PatrolDetailsWindow/AvailableCardList/ScrollView/Content/2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIRoot/NormalLayer/UIPatrolDetails/CommonRoot/PatrolDetailsWindow/AvailableCardList/ScrollView/Content/3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIRoot/NormalLayer/UIPatrolDetails/CommonRoot/PatrolDetailsWindow/AvailableCardList/ScrollView/Content/4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIRoot/NormalLayer/UIPatrolDetails/CommonRoot/PatrolDetailsWindow/AvailableCardList/ScrollView/Content/5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>请依次选择卡牌</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIRoot/NormalLayer/UIPatrolDetails/CommonRoot/PatrolDetailsWindow/PatrolDuration/StartBtn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择的卡牌战力满足派遣条件 可开始巡逻</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>巡逻后会进入倒计时，在巡逻一段时间后，即可回来领取巡逻奖励</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击关闭界面</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击返回主城</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackgroudLayer</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的冒险就到这里了 继续你的冒险把</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIRoot/NormalLayer/UIPatrolDetails/CommonRoot/PatrolDetailsWindow/PatrolTeam/RemainingTimeText/frametx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIRoot/NormalLayer/UIPatrolDetails/CommonRoot/PatrolDetailsWindow/PatrolDetailsTitle/exitBtn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIRoot/BackgroudLayer/UIHangupLevel/BattleInfoModule_RT/BackBtn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>UIGuideNeedEvent</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>UIGuideNeedEvent</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIRoot/NormalLayer/UILearnSkill/panel/right/Scroll View/grid_UIWrapGroup3D/0</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1975,7 +1987,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2096,9 +2108,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S58" sqref="S58"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2136,19 +2148,19 @@
         <v>8</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>34</v>
@@ -2157,22 +2169,22 @@
         <v>29</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O1" s="11" t="s">
         <v>66</v>
@@ -2184,7 +2196,7 @@
         <v>27</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S1" s="11" t="s">
         <v>17</v>
@@ -2202,22 +2214,22 @@
         <v>39</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Y1" s="11" t="s">
         <v>40</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AC1" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
@@ -2228,7 +2240,7 @@
         <v>35</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>24</v>
@@ -2240,31 +2252,31 @@
         <v>26</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>36</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K2" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="M2" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="L2" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>197</v>
-      </c>
       <c r="N2" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P2" s="12" t="s">
         <v>25</v>
@@ -2273,7 +2285,7 @@
         <v>18</v>
       </c>
       <c r="R2" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S2" s="12" t="s">
         <v>13</v>
@@ -2282,7 +2294,7 @@
         <v>50</v>
       </c>
       <c r="U2" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V2" s="12" t="s">
         <v>37</v>
@@ -2294,19 +2306,19 @@
         <v>42</v>
       </c>
       <c r="Y2" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z2" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="Z2" s="12" t="s">
-        <v>110</v>
-      </c>
       <c r="AA2" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AB2" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC2" s="12" t="s">
         <v>126</v>
-      </c>
-      <c r="AC2" s="12" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:29" s="16" customFormat="1" ht="75" x14ac:dyDescent="0.2">
@@ -2320,7 +2332,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>20</v>
@@ -2329,7 +2341,7 @@
         <v>30</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H3" s="15" t="s">
         <v>31</v>
@@ -2338,22 +2350,22 @@
         <v>32</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P3" s="15" t="s">
         <v>22</v>
@@ -2362,7 +2374,7 @@
         <v>23</v>
       </c>
       <c r="R3" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S3" s="15" t="s">
         <v>11</v>
@@ -2374,28 +2386,28 @@
         <v>51</v>
       </c>
       <c r="V3" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="W3" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="W3" s="15" t="s">
+      <c r="X3" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="X3" s="15" t="s">
+      <c r="Y3" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z3" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="Y3" s="15" t="s">
+      <c r="AA3" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="Z3" s="15" t="s">
+      <c r="AB3" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="AA3" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB3" s="15" t="s">
-        <v>136</v>
-      </c>
       <c r="AC3" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:29" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -2415,22 +2427,22 @@
         <v>1</v>
       </c>
       <c r="F4" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="G4" s="13">
+        <v>-1</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="I4" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="G4" s="13">
-        <v>1</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>162</v>
-      </c>
       <c r="J4" s="14">
         <v>1</v>
       </c>
-      <c r="K4" s="14">
-        <v>-1</v>
+      <c r="K4" s="14" t="s">
+        <v>277</v>
       </c>
       <c r="L4" s="14">
         <v>-1</v>
@@ -2448,13 +2460,13 @@
         <v>-1</v>
       </c>
       <c r="Q4" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="R4" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S4" s="14" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="T4" s="13">
         <v>0</v>
@@ -2504,7 +2516,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G5" s="13">
         <v>-1</v>
@@ -2513,13 +2525,13 @@
         <v>-1</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J5" s="14">
         <v>1</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>200</v>
+        <v>276</v>
       </c>
       <c r="L5" s="14">
         <v>-1</v>
@@ -2537,13 +2549,13 @@
         <v>-1</v>
       </c>
       <c r="Q5" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R5" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S5" s="14" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="T5" s="13">
         <v>0</v>
@@ -2593,7 +2605,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G6" s="13">
         <v>-1</v>
@@ -2626,13 +2638,13 @@
         <v>-1</v>
       </c>
       <c r="Q6" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R6" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S6" s="14" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="T6" s="13">
         <v>0</v>
@@ -2682,7 +2694,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G7" s="13">
         <v>-1</v>
@@ -2715,13 +2727,13 @@
         <v>-1</v>
       </c>
       <c r="Q7" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R7" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S7" s="14" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="T7" s="13">
         <v>0</v>
@@ -2771,7 +2783,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G8" s="13">
         <v>-1</v>
@@ -2804,13 +2816,13 @@
         <v>-1</v>
       </c>
       <c r="Q8" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="R8" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S8" s="14" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="T8" s="13">
         <v>0</v>
@@ -2860,7 +2872,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G9" s="13">
         <v>-1</v>
@@ -2893,13 +2905,13 @@
         <v>-1</v>
       </c>
       <c r="Q9" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="R9" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S9" s="14" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="T9" s="13">
         <v>0</v>
@@ -2949,7 +2961,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G10" s="13">
         <v>-1</v>
@@ -2982,13 +2994,13 @@
         <v>-1</v>
       </c>
       <c r="Q10" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R10" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S10" s="14" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="T10" s="13">
         <v>0</v>
@@ -3038,7 +3050,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G11" s="13">
         <v>-1</v>
@@ -3053,13 +3065,13 @@
         <v>1</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L11" s="14">
         <v>1</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="N11" s="14">
         <v>2</v>
@@ -3071,13 +3083,13 @@
         <v>-1</v>
       </c>
       <c r="Q11" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="R11" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S11" s="14" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="T11" s="13">
         <v>0</v>
@@ -3127,7 +3139,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G12" s="13">
         <v>-1</v>
@@ -3160,13 +3172,13 @@
         <v>-1</v>
       </c>
       <c r="Q12" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R12" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S12" s="14" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="T12" s="13">
         <v>0</v>
@@ -3216,7 +3228,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G13" s="13">
         <v>-1</v>
@@ -3249,13 +3261,13 @@
         <v>-1</v>
       </c>
       <c r="Q13" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R13" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S13" s="14" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="T13" s="13">
         <v>0</v>
@@ -3305,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G14" s="13">
         <v>-1</v>
@@ -3338,13 +3350,13 @@
         <v>-1</v>
       </c>
       <c r="Q14" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R14" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S14" s="14" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="T14" s="13">
         <v>0</v>
@@ -3394,7 +3406,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G15" s="13">
         <v>-1</v>
@@ -3409,7 +3421,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L15" s="14">
         <v>-1</v>
@@ -3427,13 +3439,13 @@
         <v>-1</v>
       </c>
       <c r="Q15" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R15" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S15" s="14" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="T15" s="13">
         <v>0</v>
@@ -3483,7 +3495,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G16" s="13">
         <v>-1</v>
@@ -3516,13 +3528,13 @@
         <v>-1</v>
       </c>
       <c r="Q16" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="R16" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S16" s="14" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="T16" s="13">
         <v>0</v>
@@ -3572,7 +3584,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G17" s="13">
         <v>-1</v>
@@ -3605,13 +3617,13 @@
         <v>-1</v>
       </c>
       <c r="Q17" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="R17" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S17" s="14" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="T17" s="13">
         <v>0</v>
@@ -3661,7 +3673,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G18" s="13">
         <v>-1</v>
@@ -3694,13 +3706,13 @@
         <v>-1</v>
       </c>
       <c r="Q18" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R18" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S18" s="14" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="T18" s="13">
         <v>0</v>
@@ -3750,7 +3762,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G19" s="13">
         <v>-1</v>
@@ -3783,13 +3795,13 @@
         <v>-1</v>
       </c>
       <c r="Q19" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R19" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S19" s="14" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="T19" s="13">
         <v>0</v>
@@ -3839,7 +3851,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G20" s="13">
         <v>-1</v>
@@ -3848,37 +3860,37 @@
         <v>-1</v>
       </c>
       <c r="I20" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="J20" s="13">
+        <v>0</v>
+      </c>
+      <c r="K20" s="14">
+        <v>-1</v>
+      </c>
+      <c r="L20" s="14">
+        <v>-1</v>
+      </c>
+      <c r="M20" s="14">
+        <v>-1</v>
+      </c>
+      <c r="N20" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O20" s="13">
+        <v>1</v>
+      </c>
+      <c r="P20" s="13">
+        <v>-1</v>
+      </c>
+      <c r="Q20" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="J20" s="13">
-        <v>0</v>
-      </c>
-      <c r="K20" s="14">
-        <v>-1</v>
-      </c>
-      <c r="L20" s="14">
-        <v>-1</v>
-      </c>
-      <c r="M20" s="14">
-        <v>-1</v>
-      </c>
-      <c r="N20" s="14">
-        <v>-1</v>
-      </c>
-      <c r="O20" s="13">
-        <v>1</v>
-      </c>
-      <c r="P20" s="13">
-        <v>-1</v>
-      </c>
-      <c r="Q20" s="14" t="s">
-        <v>185</v>
-      </c>
       <c r="R20" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S20" s="14" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="T20" s="13">
         <v>0</v>
@@ -3964,10 +3976,10 @@
         <v>74</v>
       </c>
       <c r="R21" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S21" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="T21" s="14">
         <v>0</v>
@@ -4050,10 +4062,10 @@
         <v>-1</v>
       </c>
       <c r="Q22" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R22" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="S22" s="14" t="s">
         <v>52</v>
@@ -4115,13 +4127,13 @@
         <v>-1</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="J23" s="14">
         <v>0</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="L23" s="14">
         <v>-1</v>
@@ -4142,7 +4154,7 @@
         <v>47</v>
       </c>
       <c r="R23" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S23" s="14" t="s">
         <v>53</v>
@@ -4231,7 +4243,7 @@
         <v>55</v>
       </c>
       <c r="R24" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="S24" s="14" t="s">
         <v>56</v>
@@ -4320,10 +4332,10 @@
         <v>57</v>
       </c>
       <c r="R25" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S25" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="T25" s="14">
         <v>0</v>
@@ -4409,10 +4421,10 @@
         <v>74</v>
       </c>
       <c r="R26" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S26" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="T26" s="14">
         <v>1</v>
@@ -4498,10 +4510,10 @@
         <v>61</v>
       </c>
       <c r="R27" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S27" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="T27" s="14">
         <v>0</v>
@@ -4587,7 +4599,7 @@
         <v>67</v>
       </c>
       <c r="R28" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S28" s="14" t="s">
         <v>52</v>
@@ -4655,7 +4667,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="L29" s="14">
         <v>-1</v>
@@ -4676,7 +4688,7 @@
         <v>47</v>
       </c>
       <c r="R29" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S29" s="14" t="s">
         <v>53</v>
@@ -4765,7 +4777,7 @@
         <v>55</v>
       </c>
       <c r="R30" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S30" s="14" t="s">
         <v>56</v>
@@ -4855,10 +4867,10 @@
         <v>57</v>
       </c>
       <c r="R31" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S31" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="T31" s="14">
         <v>0</v>
@@ -4944,10 +4956,10 @@
         <v>64</v>
       </c>
       <c r="R32" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S32" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T32" s="14">
         <v>0</v>
@@ -5030,13 +5042,13 @@
         <v>-1</v>
       </c>
       <c r="Q33" s="14" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="R33" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S33" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="T33" s="14">
         <v>0</v>
@@ -5119,13 +5131,13 @@
         <v>-1</v>
       </c>
       <c r="Q34" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="R34" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S34" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T34" s="14">
         <v>0</v>
@@ -5208,13 +5220,13 @@
         <v>-1</v>
       </c>
       <c r="Q35" s="14" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="R35" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S35" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T35" s="14">
         <v>0</v>
@@ -5264,22 +5276,22 @@
         <v>1</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G36" s="14">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J36" s="14">
         <v>1</v>
       </c>
-      <c r="K36" s="14">
-        <v>-1</v>
+      <c r="K36" s="14" t="s">
+        <v>283</v>
       </c>
       <c r="L36" s="14">
         <v>-1</v>
@@ -5297,13 +5309,13 @@
         <v>-1</v>
       </c>
       <c r="Q36" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="R36" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S36" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T36" s="14">
         <v>0</v>
@@ -5353,46 +5365,46 @@
         <v>1</v>
       </c>
       <c r="F37" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="G37" s="14">
+        <v>-1</v>
+      </c>
+      <c r="H37" s="14">
+        <v>-1</v>
+      </c>
+      <c r="I37" s="14">
+        <v>-1</v>
+      </c>
+      <c r="J37" s="14">
+        <v>1</v>
+      </c>
+      <c r="K37" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="L37" s="14">
+        <v>-1</v>
+      </c>
+      <c r="M37" s="14">
+        <v>-1</v>
+      </c>
+      <c r="N37" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O37" s="14">
+        <v>1</v>
+      </c>
+      <c r="P37" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q37" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="G37" s="14">
-        <v>-1</v>
-      </c>
-      <c r="H37" s="14">
-        <v>-1</v>
-      </c>
-      <c r="I37" s="14">
-        <v>-1</v>
-      </c>
-      <c r="J37" s="14">
-        <v>1</v>
-      </c>
-      <c r="K37" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="L37" s="14">
-        <v>-1</v>
-      </c>
-      <c r="M37" s="14">
-        <v>-1</v>
-      </c>
-      <c r="N37" s="14">
-        <v>-1</v>
-      </c>
-      <c r="O37" s="14">
-        <v>1</v>
-      </c>
-      <c r="P37" s="14">
-        <v>-1</v>
-      </c>
-      <c r="Q37" s="14" t="s">
-        <v>117</v>
-      </c>
       <c r="R37" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S37" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T37" s="14">
         <v>0</v>
@@ -5442,7 +5454,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G38" s="14">
         <v>-1</v>
@@ -5475,13 +5487,13 @@
         <v>-1</v>
       </c>
       <c r="Q38" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="R38" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S38" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T38" s="14">
         <v>0</v>
@@ -5531,7 +5543,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G39" s="14">
         <v>0.5</v>
@@ -5564,13 +5576,13 @@
         <v>-1</v>
       </c>
       <c r="Q39" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R39" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S39" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T39" s="14">
         <v>0</v>
@@ -5620,7 +5632,7 @@
         <v>1</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G40" s="14">
         <v>-1</v>
@@ -5653,13 +5665,13 @@
         <v>-1</v>
       </c>
       <c r="Q40" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="R40" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="S40" s="14" t="s">
         <v>153</v>
-      </c>
-      <c r="S40" s="14" t="s">
-        <v>154</v>
       </c>
       <c r="T40" s="14">
         <v>0</v>
@@ -5709,46 +5721,46 @@
         <v>1</v>
       </c>
       <c r="F41" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G41" s="14">
+        <v>-1</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="I41" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="J41" s="14">
+        <v>1</v>
+      </c>
+      <c r="K41" s="14">
+        <v>-1</v>
+      </c>
+      <c r="L41" s="14">
+        <v>-1</v>
+      </c>
+      <c r="M41" s="14">
+        <v>-1</v>
+      </c>
+      <c r="N41" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O41" s="14">
+        <v>1</v>
+      </c>
+      <c r="P41" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q41" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="G41" s="14">
-        <v>-1</v>
-      </c>
-      <c r="H41" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="I41" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="J41" s="14">
-        <v>1</v>
-      </c>
-      <c r="K41" s="14">
-        <v>-1</v>
-      </c>
-      <c r="L41" s="14">
-        <v>-1</v>
-      </c>
-      <c r="M41" s="14">
-        <v>-1</v>
-      </c>
-      <c r="N41" s="14">
-        <v>-1</v>
-      </c>
-      <c r="O41" s="14">
-        <v>1</v>
-      </c>
-      <c r="P41" s="14">
-        <v>-1</v>
-      </c>
-      <c r="Q41" s="14" t="s">
-        <v>122</v>
-      </c>
       <c r="R41" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S41" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T41" s="14">
         <v>0</v>
@@ -5846,10 +5858,10 @@
         <v>74</v>
       </c>
       <c r="R42" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S42" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T42" s="14">
         <v>0</v>
@@ -5935,7 +5947,7 @@
         <v>61</v>
       </c>
       <c r="R43" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S43" s="14" t="s">
         <v>62</v>
@@ -6024,7 +6036,7 @@
         <v>67</v>
       </c>
       <c r="R44" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S44" s="14" t="s">
         <v>52</v>
@@ -6092,7 +6104,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="14" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="L45" s="14">
         <v>-1</v>
@@ -6113,7 +6125,7 @@
         <v>73</v>
       </c>
       <c r="R45" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S45" s="14" t="s">
         <v>53</v>
@@ -6181,7 +6193,7 @@
         <v>1</v>
       </c>
       <c r="K46" s="14" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="L46" s="14">
         <v>-1</v>
@@ -6202,10 +6214,10 @@
         <v>57</v>
       </c>
       <c r="R46" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S46" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="T46" s="14">
         <v>0</v>
@@ -6291,7 +6303,7 @@
         <v>64</v>
       </c>
       <c r="R47" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S47" s="14" t="s">
         <v>65</v>
@@ -6353,7 +6365,7 @@
         <v>-1</v>
       </c>
       <c r="I48" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J48" s="14">
         <v>1</v>
@@ -6380,10 +6392,10 @@
         <v>75</v>
       </c>
       <c r="R48" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S48" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="T48" s="14">
         <v>0</v>
@@ -6469,7 +6481,7 @@
         <v>78</v>
       </c>
       <c r="R49" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S49" s="14" t="s">
         <v>79</v>
@@ -6558,10 +6570,10 @@
         <v>82</v>
       </c>
       <c r="R50" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S50" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T50" s="14">
         <v>0</v>
@@ -6644,13 +6656,13 @@
         <v>-1</v>
       </c>
       <c r="Q51" s="14" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="R51" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S51" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="T51" s="14">
         <v>0</v>
@@ -6736,7 +6748,7 @@
         <v>84</v>
       </c>
       <c r="R52" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S52" s="14" t="s">
         <v>85</v>
@@ -6803,8 +6815,8 @@
       <c r="J53" s="14">
         <v>1</v>
       </c>
-      <c r="K53" s="14">
-        <v>-1</v>
+      <c r="K53" s="14" t="s">
+        <v>281</v>
       </c>
       <c r="L53" s="14">
         <v>-1</v>
@@ -6825,7 +6837,7 @@
         <v>86</v>
       </c>
       <c r="R53" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S53" s="14" t="s">
         <v>88</v>
@@ -6914,7 +6926,7 @@
         <v>87</v>
       </c>
       <c r="R54" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S54" s="14" t="s">
         <v>88</v>
@@ -7003,7 +7015,7 @@
         <v>89</v>
       </c>
       <c r="R55" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S55" s="14" t="s">
         <v>90</v>
@@ -7092,7 +7104,7 @@
         <v>92</v>
       </c>
       <c r="R56" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S56" s="14" t="s">
         <v>93</v>
@@ -7181,10 +7193,10 @@
         <v>94</v>
       </c>
       <c r="R57" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S57" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="T57" s="14">
         <v>0</v>
@@ -7267,13 +7279,13 @@
         <v>-1</v>
       </c>
       <c r="Q58" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R58" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S58" s="14" t="s">
-        <v>96</v>
+        <v>279</v>
       </c>
       <c r="T58" s="14">
         <v>0</v>
@@ -7332,7 +7344,7 @@
         <v>-1</v>
       </c>
       <c r="I59" s="14" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="J59" s="14">
         <v>1</v>
@@ -7356,10 +7368,10 @@
         <v>-1</v>
       </c>
       <c r="Q59" s="14" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="R59" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S59" s="14" t="s">
         <v>90</v>
@@ -7448,7 +7460,7 @@
         <v>92</v>
       </c>
       <c r="R60" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S60" s="14" t="s">
         <v>93</v>
@@ -7537,10 +7549,10 @@
         <v>94</v>
       </c>
       <c r="R61" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S61" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="T61" s="14">
         <v>1</v>
@@ -7599,7 +7611,7 @@
         <v>-1</v>
       </c>
       <c r="I62" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J62" s="14">
         <v>1</v>
@@ -7623,13 +7635,13 @@
         <v>-1</v>
       </c>
       <c r="Q62" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="R62" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="S62" s="14" t="s">
         <v>99</v>
-      </c>
-      <c r="R62" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="S62" s="14" t="s">
-        <v>100</v>
       </c>
       <c r="T62" s="14">
         <v>0</v>
@@ -7688,37 +7700,37 @@
         <v>-1</v>
       </c>
       <c r="I63" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="J63" s="14">
+        <v>1</v>
+      </c>
+      <c r="K63" s="14">
+        <v>-1</v>
+      </c>
+      <c r="L63" s="14">
+        <v>-1</v>
+      </c>
+      <c r="M63" s="14">
+        <v>-1</v>
+      </c>
+      <c r="N63" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O63" s="14">
+        <v>1</v>
+      </c>
+      <c r="P63" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q63" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="R63" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="S63" s="14" t="s">
         <v>101</v>
-      </c>
-      <c r="J63" s="14">
-        <v>1</v>
-      </c>
-      <c r="K63" s="14">
-        <v>-1</v>
-      </c>
-      <c r="L63" s="14">
-        <v>-1</v>
-      </c>
-      <c r="M63" s="14">
-        <v>-1</v>
-      </c>
-      <c r="N63" s="14">
-        <v>-1</v>
-      </c>
-      <c r="O63" s="14">
-        <v>1</v>
-      </c>
-      <c r="P63" s="14">
-        <v>-1</v>
-      </c>
-      <c r="Q63" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="R63" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="S63" s="14" t="s">
-        <v>102</v>
       </c>
       <c r="T63" s="14">
         <v>0</v>
@@ -7768,7 +7780,7 @@
         <v>1</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G64" s="14">
         <v>-1</v>
@@ -7777,7 +7789,7 @@
         <v>-1</v>
       </c>
       <c r="I64" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J64" s="14">
         <v>1</v>
@@ -7801,13 +7813,13 @@
         <v>-1</v>
       </c>
       <c r="Q64" s="14" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="R64" s="14" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="S64" s="14" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="T64" s="14">
         <v>0</v>
@@ -7857,7 +7869,7 @@
         <v>1</v>
       </c>
       <c r="F65" s="14" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G65" s="14">
         <v>-1</v>
@@ -7893,10 +7905,10 @@
         <v>280</v>
       </c>
       <c r="R65" s="14" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="S65" s="14" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="T65" s="14">
         <v>0</v>
@@ -7955,37 +7967,37 @@
         <v>-1</v>
       </c>
       <c r="I66" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="J66" s="14">
+        <v>1</v>
+      </c>
+      <c r="K66" s="14">
+        <v>-1</v>
+      </c>
+      <c r="L66" s="14">
+        <v>-1</v>
+      </c>
+      <c r="M66" s="14">
+        <v>-1</v>
+      </c>
+      <c r="N66" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O66" s="14">
+        <v>1</v>
+      </c>
+      <c r="P66" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q66" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="J66" s="14">
-        <v>1</v>
-      </c>
-      <c r="K66" s="14">
-        <v>-1</v>
-      </c>
-      <c r="L66" s="14">
-        <v>-1</v>
-      </c>
-      <c r="M66" s="14">
-        <v>-1</v>
-      </c>
-      <c r="N66" s="14">
-        <v>-1</v>
-      </c>
-      <c r="O66" s="14">
-        <v>1</v>
-      </c>
-      <c r="P66" s="14">
-        <v>-1</v>
-      </c>
-      <c r="Q66" s="14" t="s">
+      <c r="R66" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="S66" s="14" t="s">
         <v>104</v>
-      </c>
-      <c r="R66" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="S66" s="14" t="s">
-        <v>105</v>
       </c>
       <c r="T66" s="14">
         <v>0</v>
@@ -8044,7 +8056,7 @@
         <v>-1</v>
       </c>
       <c r="I67" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J67" s="14">
         <v>1</v>
@@ -8068,10 +8080,10 @@
         <v>-1</v>
       </c>
       <c r="Q67" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R67" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S67" s="14" t="s">
         <v>88</v>
@@ -8133,7 +8145,7 @@
         <v>-1</v>
       </c>
       <c r="I68" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J68" s="14">
         <v>1</v>
@@ -8157,10 +8169,10 @@
         <v>-1</v>
       </c>
       <c r="Q68" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R68" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S68" s="14" t="s">
         <v>88</v>
@@ -8246,10 +8258,10 @@
         <v>-1</v>
       </c>
       <c r="Q69" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R69" s="14" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="S69" s="14" t="s">
         <v>88</v>
@@ -8311,37 +8323,37 @@
         <v>-1</v>
       </c>
       <c r="I70" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="J70" s="14">
+        <v>1</v>
+      </c>
+      <c r="K70" s="14">
+        <v>-1</v>
+      </c>
+      <c r="L70" s="14">
+        <v>-1</v>
+      </c>
+      <c r="M70" s="14">
+        <v>-1</v>
+      </c>
+      <c r="N70" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O70" s="14">
+        <v>1</v>
+      </c>
+      <c r="P70" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q70" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="R70" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="J70" s="14">
-        <v>1</v>
-      </c>
-      <c r="K70" s="14">
-        <v>-1</v>
-      </c>
-      <c r="L70" s="14">
-        <v>-1</v>
-      </c>
-      <c r="M70" s="14">
-        <v>-1</v>
-      </c>
-      <c r="N70" s="14">
-        <v>-1</v>
-      </c>
-      <c r="O70" s="14">
-        <v>1</v>
-      </c>
-      <c r="P70" s="14">
-        <v>-1</v>
-      </c>
-      <c r="Q70" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="R70" s="14" t="s">
-        <v>252</v>
-      </c>
       <c r="S70" s="14" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="T70" s="14">
         <v>0</v>
@@ -8391,7 +8403,7 @@
         <v>1</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G71" s="14">
         <v>-1</v>
@@ -8400,13 +8412,13 @@
         <v>-1</v>
       </c>
       <c r="I71" s="14" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="J71" s="14">
         <v>1</v>
       </c>
       <c r="K71" s="14" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="L71" s="14">
         <v>-1</v>
@@ -8424,13 +8436,13 @@
         <v>-1</v>
       </c>
       <c r="Q71" s="14" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="R71" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S71" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="T71" s="14">
         <v>0</v>
@@ -8480,7 +8492,7 @@
         <v>1</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G72" s="14">
         <v>-1</v>
@@ -8489,7 +8501,7 @@
         <v>-1</v>
       </c>
       <c r="I72" s="14" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="J72" s="14">
         <v>1</v>
@@ -8513,13 +8525,13 @@
         <v>-1</v>
       </c>
       <c r="Q72" s="14" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="R72" s="14" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="S72" s="14" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="T72" s="14">
         <v>0</v>
@@ -8569,46 +8581,46 @@
         <v>1</v>
       </c>
       <c r="F73" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="G73" s="14">
+        <v>-1</v>
+      </c>
+      <c r="H73" s="14">
+        <v>-1</v>
+      </c>
+      <c r="I73" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="J73" s="14">
+        <v>1</v>
+      </c>
+      <c r="K73" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="L73" s="14">
+        <v>-1</v>
+      </c>
+      <c r="M73" s="14">
+        <v>-1</v>
+      </c>
+      <c r="N73" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O73" s="14">
+        <v>1</v>
+      </c>
+      <c r="P73" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q73" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="G73" s="14">
-        <v>-1</v>
-      </c>
-      <c r="H73" s="14">
-        <v>-1</v>
-      </c>
-      <c r="I73" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="J73" s="14">
-        <v>1</v>
-      </c>
-      <c r="K73" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="L73" s="14">
-        <v>-1</v>
-      </c>
-      <c r="M73" s="14">
-        <v>-1</v>
-      </c>
-      <c r="N73" s="14">
-        <v>-1</v>
-      </c>
-      <c r="O73" s="14">
-        <v>1</v>
-      </c>
-      <c r="P73" s="14">
-        <v>-1</v>
-      </c>
-      <c r="Q73" s="14" t="s">
-        <v>261</v>
-      </c>
       <c r="R73" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S73" s="14" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="T73" s="14">
         <v>0</v>
@@ -8658,7 +8670,7 @@
         <v>1</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G74" s="14">
         <v>-1</v>
@@ -8667,37 +8679,37 @@
         <v>-1</v>
       </c>
       <c r="I74" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="J74" s="14">
+        <v>0</v>
+      </c>
+      <c r="K74" s="14">
+        <v>-1</v>
+      </c>
+      <c r="L74" s="14">
+        <v>-1</v>
+      </c>
+      <c r="M74" s="14">
+        <v>-1</v>
+      </c>
+      <c r="N74" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O74" s="14">
+        <v>1</v>
+      </c>
+      <c r="P74" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q74" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="J74" s="14">
-        <v>0</v>
-      </c>
-      <c r="K74" s="14">
-        <v>-1</v>
-      </c>
-      <c r="L74" s="14">
-        <v>-1</v>
-      </c>
-      <c r="M74" s="14">
-        <v>-1</v>
-      </c>
-      <c r="N74" s="14">
-        <v>-1</v>
-      </c>
-      <c r="O74" s="14">
-        <v>1</v>
-      </c>
-      <c r="P74" s="14">
-        <v>-1</v>
-      </c>
-      <c r="Q74" s="14" t="s">
-        <v>262</v>
-      </c>
       <c r="R74" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S74" s="14" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="T74" s="14">
         <v>0</v>
@@ -8747,7 +8759,7 @@
         <v>1</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G75" s="14">
         <v>-1</v>
@@ -8756,7 +8768,7 @@
         <v>-1</v>
       </c>
       <c r="I75" s="14" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="J75" s="14">
         <v>0</v>
@@ -8780,13 +8792,13 @@
         <v>-1</v>
       </c>
       <c r="Q75" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="R75" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="S75" s="14" t="s">
         <v>263</v>
-      </c>
-      <c r="R75" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="S75" s="14" t="s">
-        <v>267</v>
       </c>
       <c r="T75" s="14">
         <v>0</v>
@@ -8836,7 +8848,7 @@
         <v>1</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G76" s="14">
         <v>-1</v>
@@ -8845,7 +8857,7 @@
         <v>-1</v>
       </c>
       <c r="I76" s="14" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="J76" s="14">
         <v>0</v>
@@ -8869,13 +8881,13 @@
         <v>-1</v>
       </c>
       <c r="Q76" s="14" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="R76" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S76" s="14" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="T76" s="14">
         <v>0</v>
@@ -8925,7 +8937,7 @@
         <v>1</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G77" s="14">
         <v>-1</v>
@@ -8934,7 +8946,7 @@
         <v>-1</v>
       </c>
       <c r="I77" s="14" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="J77" s="14">
         <v>0</v>
@@ -8958,13 +8970,13 @@
         <v>-1</v>
       </c>
       <c r="Q77" s="14" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="R77" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S77" s="14" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="T77" s="14">
         <v>0</v>
@@ -9014,7 +9026,7 @@
         <v>1</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G78" s="14">
         <v>-1</v>
@@ -9023,7 +9035,7 @@
         <v>-1</v>
       </c>
       <c r="I78" s="14" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="J78" s="14">
         <v>0</v>
@@ -9047,13 +9059,13 @@
         <v>-1</v>
       </c>
       <c r="Q78" s="14" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="R78" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S78" s="14" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="T78" s="14">
         <v>0</v>
@@ -9103,7 +9115,7 @@
         <v>1</v>
       </c>
       <c r="F79" s="14" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G79" s="14">
         <v>-1</v>
@@ -9112,7 +9124,7 @@
         <v>-1</v>
       </c>
       <c r="I79" s="14" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="J79" s="14">
         <v>1</v>
@@ -9136,13 +9148,13 @@
         <v>-1</v>
       </c>
       <c r="Q79" s="14" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="R79" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S79" s="14" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="T79" s="14">
         <v>0</v>
@@ -9192,7 +9204,7 @@
         <v>1</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G80" s="14">
         <v>-1</v>
@@ -9201,13 +9213,13 @@
         <v>-1</v>
       </c>
       <c r="I80" s="14" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="J80" s="14">
         <v>1</v>
       </c>
       <c r="K80" s="14" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="L80" s="14">
         <v>-1</v>
@@ -9225,13 +9237,13 @@
         <v>-1</v>
       </c>
       <c r="Q80" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="R80" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S80" s="14" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="T80" s="14">
         <v>0</v>
@@ -9281,7 +9293,7 @@
         <v>1</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G81" s="14">
         <v>-1</v>
@@ -9290,7 +9302,7 @@
         <v>-1</v>
       </c>
       <c r="I81" s="14" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="J81" s="14">
         <v>1</v>
@@ -9314,13 +9326,13 @@
         <v>-1</v>
       </c>
       <c r="Q81" s="14" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="R81" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S81" s="14" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="T81" s="14">
         <v>0</v>
@@ -9370,46 +9382,46 @@
         <v>1</v>
       </c>
       <c r="F82" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="G82" s="14">
+        <v>-1</v>
+      </c>
+      <c r="H82" s="14">
+        <v>-1</v>
+      </c>
+      <c r="I82" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="J82" s="14">
+        <v>1</v>
+      </c>
+      <c r="K82" s="14">
+        <v>-1</v>
+      </c>
+      <c r="L82" s="14">
+        <v>-1</v>
+      </c>
+      <c r="M82" s="14">
+        <v>-1</v>
+      </c>
+      <c r="N82" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O82" s="14">
+        <v>1</v>
+      </c>
+      <c r="P82" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q82" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="G82" s="14">
-        <v>-1</v>
-      </c>
-      <c r="H82" s="14">
-        <v>-1</v>
-      </c>
-      <c r="I82" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="J82" s="14">
-        <v>1</v>
-      </c>
-      <c r="K82" s="14">
-        <v>-1</v>
-      </c>
-      <c r="L82" s="14">
-        <v>-1</v>
-      </c>
-      <c r="M82" s="14">
-        <v>-1</v>
-      </c>
-      <c r="N82" s="14">
-        <v>-1</v>
-      </c>
-      <c r="O82" s="14">
-        <v>1</v>
-      </c>
-      <c r="P82" s="14">
-        <v>-1</v>
-      </c>
-      <c r="Q82" s="14" t="s">
-        <v>277</v>
-      </c>
       <c r="R82" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S82" s="14" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="T82" s="14">
         <v>0</v>
@@ -9459,7 +9471,7 @@
         <v>1</v>
       </c>
       <c r="F83" s="14" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G83" s="14">
         <v>1</v>
@@ -9492,13 +9504,13 @@
         <v>-1</v>
       </c>
       <c r="Q83" s="14" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="R83" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S83" s="14" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="T83" s="14">
         <v>0</v>
